--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cxcl14</t>
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>210.396303482342</v>
+        <v>3.787220333333334</v>
       </c>
       <c r="H2">
-        <v>210.396303482342</v>
+        <v>11.361661</v>
       </c>
       <c r="I2">
-        <v>0.9979798460489404</v>
+        <v>0.0172657926291056</v>
       </c>
       <c r="J2">
-        <v>0.9979798460489404</v>
+        <v>0.0172657926291056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.986405348307</v>
+        <v>23.66111866666667</v>
       </c>
       <c r="N2">
-        <v>22.986405348307</v>
+        <v>70.983356</v>
       </c>
       <c r="O2">
-        <v>0.09682269173287546</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="P2">
-        <v>0.09682269173287546</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="Q2">
-        <v>4836.254715630529</v>
+        <v>89.60986972381291</v>
       </c>
       <c r="R2">
-        <v>4836.254715630529</v>
+        <v>806.4888275143161</v>
       </c>
       <c r="S2">
-        <v>0.09662709498961906</v>
+        <v>0.001529957195369996</v>
       </c>
       <c r="T2">
-        <v>0.09662709498961906</v>
+        <v>0.001529957195369995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>210.396303482342</v>
+        <v>3.787220333333334</v>
       </c>
       <c r="H3">
-        <v>210.396303482342</v>
+        <v>11.361661</v>
       </c>
       <c r="I3">
-        <v>0.9979798460489404</v>
+        <v>0.0172657926291056</v>
       </c>
       <c r="J3">
-        <v>0.9979798460489404</v>
+        <v>0.0172657926291056</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>203.809550316743</v>
+        <v>0.1622346666666667</v>
       </c>
       <c r="N3">
-        <v>203.809550316743</v>
+        <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.8584808700411867</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="P3">
-        <v>0.8584808700411867</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="Q3">
-        <v>42880.77600104111</v>
+        <v>0.6144184283715557</v>
       </c>
       <c r="R3">
-        <v>42880.77600104111</v>
+        <v>5.529765855344001</v>
       </c>
       <c r="S3">
-        <v>0.8567466065196639</v>
+        <v>1.049029418692684E-05</v>
       </c>
       <c r="T3">
-        <v>0.8567466065196639</v>
+        <v>1.049029418692684E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>210.396303482342</v>
+        <v>3.787220333333334</v>
       </c>
       <c r="H4">
-        <v>210.396303482342</v>
+        <v>11.361661</v>
       </c>
       <c r="I4">
-        <v>0.9979798460489404</v>
+        <v>0.0172657926291056</v>
       </c>
       <c r="J4">
-        <v>0.9979798460489404</v>
+        <v>0.0172657926291056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6112568066327</v>
+        <v>231.2048796666667</v>
       </c>
       <c r="N4">
-        <v>10.6112568066327</v>
+        <v>693.614639</v>
       </c>
       <c r="O4">
-        <v>0.04469643822593798</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="P4">
-        <v>0.04469643822593798</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="Q4">
-        <v>2232.569207417361</v>
+        <v>875.6238214394867</v>
       </c>
       <c r="R4">
-        <v>2232.569207417361</v>
+        <v>7880.61439295538</v>
       </c>
       <c r="S4">
-        <v>0.04460614453965756</v>
+        <v>0.0149499934569452</v>
       </c>
       <c r="T4">
-        <v>0.04460614453965756</v>
+        <v>0.0149499934569452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.425893293788359</v>
+        <v>3.787220333333334</v>
       </c>
       <c r="H5">
-        <v>0.425893293788359</v>
+        <v>11.361661</v>
       </c>
       <c r="I5">
-        <v>0.002020153951059575</v>
+        <v>0.0172657926291056</v>
       </c>
       <c r="J5">
-        <v>0.002020153951059575</v>
+        <v>0.0172657926291056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.986405348307</v>
+        <v>11.99098133333333</v>
       </c>
       <c r="N5">
-        <v>22.986405348307</v>
+        <v>35.972944</v>
       </c>
       <c r="O5">
-        <v>0.09682269173287546</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="P5">
-        <v>0.09682269173287546</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="Q5">
-        <v>9.789755886144819</v>
+        <v>45.41248832222045</v>
       </c>
       <c r="R5">
-        <v>9.789755886144819</v>
+        <v>408.712394899984</v>
       </c>
       <c r="S5">
-        <v>0.0001955967432563916</v>
+        <v>0.0007753516826034811</v>
       </c>
       <c r="T5">
-        <v>0.0001955967432563916</v>
+        <v>0.0007753516826034808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.425893293788359</v>
+        <v>214.9148456666667</v>
       </c>
       <c r="H6">
-        <v>0.425893293788359</v>
+        <v>644.744537</v>
       </c>
       <c r="I6">
-        <v>0.002020153951059575</v>
+        <v>0.979788560369008</v>
       </c>
       <c r="J6">
-        <v>0.002020153951059575</v>
+        <v>0.9797885603690079</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>203.809550316743</v>
+        <v>23.66111866666667</v>
       </c>
       <c r="N6">
-        <v>203.809550316743</v>
+        <v>70.983356</v>
       </c>
       <c r="O6">
-        <v>0.8584808700411867</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="P6">
-        <v>0.8584808700411867</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="Q6">
-        <v>86.80112068992197</v>
+        <v>5085.125666547353</v>
       </c>
       <c r="R6">
-        <v>86.80112068992197</v>
+        <v>45766.13099892617</v>
       </c>
       <c r="S6">
-        <v>0.001734263521522765</v>
+        <v>0.08682106811307309</v>
       </c>
       <c r="T6">
-        <v>0.001734263521522765</v>
+        <v>0.08682106811307308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>214.9148456666667</v>
+      </c>
+      <c r="H7">
+        <v>644.744537</v>
+      </c>
+      <c r="I7">
+        <v>0.979788560369008</v>
+      </c>
+      <c r="J7">
+        <v>0.9797885603690079</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1622346666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.486704</v>
+      </c>
+      <c r="O7">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="P7">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="Q7">
+        <v>34.86663834844978</v>
+      </c>
+      <c r="R7">
+        <v>313.799745136048</v>
+      </c>
+      <c r="S7">
+        <v>0.000595296750056522</v>
+      </c>
+      <c r="T7">
+        <v>0.000595296750056522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>214.9148456666667</v>
+      </c>
+      <c r="H8">
+        <v>644.744537</v>
+      </c>
+      <c r="I8">
+        <v>0.979788560369008</v>
+      </c>
+      <c r="J8">
+        <v>0.9797885603690079</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>231.2048796666667</v>
+      </c>
+      <c r="N8">
+        <v>693.614639</v>
+      </c>
+      <c r="O8">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="P8">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="Q8">
+        <v>49689.36103094191</v>
+      </c>
+      <c r="R8">
+        <v>447204.2492784772</v>
+      </c>
+      <c r="S8">
+        <v>0.8483730160186228</v>
+      </c>
+      <c r="T8">
+        <v>0.8483730160186227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>214.9148456666667</v>
+      </c>
+      <c r="H9">
+        <v>644.744537</v>
+      </c>
+      <c r="I9">
+        <v>0.979788560369008</v>
+      </c>
+      <c r="J9">
+        <v>0.9797885603690079</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.99098133333333</v>
+      </c>
+      <c r="N9">
+        <v>35.972944</v>
+      </c>
+      <c r="O9">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="P9">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="Q9">
+        <v>2577.039902645214</v>
+      </c>
+      <c r="R9">
+        <v>23193.35912380693</v>
+      </c>
+      <c r="S9">
+        <v>0.04399917948725563</v>
+      </c>
+      <c r="T9">
+        <v>0.04399917948725562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.425893293788359</v>
-      </c>
-      <c r="H7">
-        <v>0.425893293788359</v>
-      </c>
-      <c r="I7">
-        <v>0.002020153951059575</v>
-      </c>
-      <c r="J7">
-        <v>0.002020153951059575</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>10.6112568066327</v>
-      </c>
-      <c r="N7">
-        <v>10.6112568066327</v>
-      </c>
-      <c r="O7">
-        <v>0.04469643822593798</v>
-      </c>
-      <c r="P7">
-        <v>0.04469643822593798</v>
-      </c>
-      <c r="Q7">
-        <v>4.519263112610944</v>
-      </c>
-      <c r="R7">
-        <v>4.519263112610944</v>
-      </c>
-      <c r="S7">
-        <v>9.029368628041884E-05</v>
-      </c>
-      <c r="T7">
-        <v>9.029368628041884E-05</v>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.520458</v>
+      </c>
+      <c r="H10">
+        <v>1.561374</v>
+      </c>
+      <c r="I10">
+        <v>0.002372748113191999</v>
+      </c>
+      <c r="J10">
+        <v>0.002372748113191999</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.66111866666667</v>
+      </c>
+      <c r="N10">
+        <v>70.983356</v>
+      </c>
+      <c r="O10">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="P10">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="Q10">
+        <v>12.314618499016</v>
+      </c>
+      <c r="R10">
+        <v>110.831566491144</v>
+      </c>
+      <c r="S10">
+        <v>0.0002102540628490527</v>
+      </c>
+      <c r="T10">
+        <v>0.0002102540628490526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.520458</v>
+      </c>
+      <c r="H11">
+        <v>1.561374</v>
+      </c>
+      <c r="I11">
+        <v>0.002372748113191999</v>
+      </c>
+      <c r="J11">
+        <v>0.002372748113191999</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1622346666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.486704</v>
+      </c>
+      <c r="O11">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="P11">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="Q11">
+        <v>0.084436330144</v>
+      </c>
+      <c r="R11">
+        <v>0.759926971296</v>
+      </c>
+      <c r="S11">
+        <v>1.441626589265311E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.44162658926531E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.520458</v>
+      </c>
+      <c r="H12">
+        <v>1.561374</v>
+      </c>
+      <c r="I12">
+        <v>0.002372748113191999</v>
+      </c>
+      <c r="J12">
+        <v>0.002372748113191999</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>231.2048796666667</v>
+      </c>
+      <c r="N12">
+        <v>693.614639</v>
+      </c>
+      <c r="O12">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="P12">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="Q12">
+        <v>120.332429261554</v>
+      </c>
+      <c r="R12">
+        <v>1082.991863353986</v>
+      </c>
+      <c r="S12">
+        <v>0.002054499873200261</v>
+      </c>
+      <c r="T12">
+        <v>0.00205449987320026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.520458</v>
+      </c>
+      <c r="H13">
+        <v>1.561374</v>
+      </c>
+      <c r="I13">
+        <v>0.002372748113191999</v>
+      </c>
+      <c r="J13">
+        <v>0.002372748113191999</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.99098133333333</v>
+      </c>
+      <c r="N13">
+        <v>35.972944</v>
+      </c>
+      <c r="O13">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="P13">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="Q13">
+        <v>6.240802162783999</v>
+      </c>
+      <c r="R13">
+        <v>56.16721946505599</v>
+      </c>
+      <c r="S13">
+        <v>0.0001065525505534206</v>
+      </c>
+      <c r="T13">
+        <v>0.0001065525505534206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1256643333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.376993</v>
+      </c>
+      <c r="I14">
+        <v>0.0005728988886945674</v>
+      </c>
+      <c r="J14">
+        <v>0.0005728988886945673</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.66111866666667</v>
+      </c>
+      <c r="N14">
+        <v>70.983356</v>
+      </c>
+      <c r="O14">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="P14">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="Q14">
+        <v>2.973358703167556</v>
+      </c>
+      <c r="R14">
+        <v>26.760228328508</v>
+      </c>
+      <c r="S14">
+        <v>5.076574217045559E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.076574217045558E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1256643333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.376993</v>
+      </c>
+      <c r="I15">
+        <v>0.0005728988886945674</v>
+      </c>
+      <c r="J15">
+        <v>0.0005728988886945673</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1622346666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.486704</v>
+      </c>
+      <c r="O15">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="P15">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="Q15">
+        <v>0.02038711123022223</v>
+      </c>
+      <c r="R15">
+        <v>0.183484001072</v>
+      </c>
+      <c r="S15">
+        <v>3.480800453747132E-07</v>
+      </c>
+      <c r="T15">
+        <v>3.480800453747131E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1256643333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.376993</v>
+      </c>
+      <c r="I16">
+        <v>0.0005728988886945674</v>
+      </c>
+      <c r="J16">
+        <v>0.0005728988886945673</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>231.2048796666667</v>
+      </c>
+      <c r="N16">
+        <v>693.614639</v>
+      </c>
+      <c r="O16">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="P16">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="Q16">
+        <v>29.05420706672523</v>
+      </c>
+      <c r="R16">
+        <v>261.487863600527</v>
+      </c>
+      <c r="S16">
+        <v>0.0004960580044866804</v>
+      </c>
+      <c r="T16">
+        <v>0.0004960580044866803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1256643333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.376993</v>
+      </c>
+      <c r="I17">
+        <v>0.0005728988886945674</v>
+      </c>
+      <c r="J17">
+        <v>0.0005728988886945673</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.99098133333333</v>
+      </c>
+      <c r="N17">
+        <v>35.972944</v>
+      </c>
+      <c r="O17">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="P17">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="Q17">
+        <v>1.506838675265778</v>
+      </c>
+      <c r="R17">
+        <v>13.561548077392</v>
+      </c>
+      <c r="S17">
+        <v>2.572706199205681E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.57270619920568E-05</v>
       </c>
     </row>
   </sheetData>
